--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Security Auditor Program/Security Auditor Program/Security Auditor Program/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/CIS Assessor Remote/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_E214498DBAD700CD9DBCD4D5C76CD7E8BA70989D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC6967E-A5F0-4122-AF14-89C67D0A018D}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_E214498DBAD700CD9DBCD4D5C76CD7E8BA70989D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB09D179-F9D2-4FAD-BDFC-1332C014E3C2}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2970" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4200" yWindow="-19308" windowWidth="30936" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="\'*';\'*';\'*';\'*'"/>
+    <numFmt numFmtId="165" formatCode="**;;;**"/>
+    <numFmt numFmtId="166" formatCode="**;**;**;**"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +81,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,16 +111,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -431,17 +450,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,7 +489,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>123456</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -488,14 +507,91 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>123456</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="6"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="6"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="6"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="6"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="6"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" s="6"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="6"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" s="6"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="6"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -507,7 +603,7 @@
           <x14:formula1>
             <xm:f>'Windows Version'!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D1048576 J1:J2</xm:sqref>
+          <xm:sqref>J1:J2 D14:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95AEA837-F869-48B2-A5B6-4E4774E66547}">
           <x14:formula1>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/CIS Assessor Remote/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Security Auditor Program/Security Auditor Program/Security Auditor Program (Python)/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_E214498DBAD700CD9DBCD4D5C76CD7E8BA70989D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB09D179-F9D2-4FAD-BDFC-1332C014E3C2}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="11_E214498DBAD700CD9DBCD4D5C76CD7E8BA70989D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319FD585-C557-4C2A-A973-57674EE4B4E6}"/>
   <bookViews>
-    <workbookView xWindow="-4200" yWindow="-19308" windowWidth="30936" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>IP Address</t>
   </si>
@@ -35,22 +35,34 @@
     <t>Windows Version</t>
   </si>
   <si>
-    <t>Windows 10 Enterprise</t>
-  </si>
-  <si>
-    <t>Windows 11 Enterprise</t>
-  </si>
-  <si>
-    <t>Windows Server 2016 MS</t>
-  </si>
-  <si>
-    <t>Windows Server 2019 MS</t>
-  </si>
-  <si>
-    <t>Windows Server 2022 MS</t>
-  </si>
-  <si>
-    <t>Windows Server 2019 DC</t>
+    <t>SQL SERVER 2019 L1</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise L1</t>
+  </si>
+  <si>
+    <t>Windows 11 Enterprise L1</t>
+  </si>
+  <si>
+    <t>Windows Server 2022 MS L1</t>
+  </si>
+  <si>
+    <t>Windows Server 2016 MS L1</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 DC L1</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 MS L1</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 STIG DC L1</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 STIG MS L1</t>
   </si>
   <si>
     <t>admin</t>
@@ -153,8 +165,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D417A169-9AE6-44DC-8DEB-0E0071F09368}" name="Table3" displayName="Table3" ref="A1:A7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A7" xr:uid="{D417A169-9AE6-44DC-8DEB-0E0071F09368}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D417A169-9AE6-44DC-8DEB-0E0071F09368}" name="Table3" displayName="Table3" ref="A1:A10" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A10" xr:uid="{D417A169-9AE6-44DC-8DEB-0E0071F09368}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9A299EFE-7A43-4EF4-915E-144D289928BA}" name="Windows Version" dataDxfId="0"/>
   </tableColumns>
@@ -453,7 +468,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +476,7 @@
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -484,13 +499,13 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7">
-        <v>123456</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -502,13 +517,13 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7">
-        <v>123456</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -601,13 +616,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{624FBCE6-DE5D-4875-94E0-2C240F789C1D}">
           <x14:formula1>
-            <xm:f>'Windows Version'!$A$2:$A$6</xm:f>
+            <xm:f>'Windows Version'!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J2 D14:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95AEA837-F869-48B2-A5B6-4E4774E66547}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65B7278A-8B86-4D6A-84D8-4523EA16B2ED}">
           <x14:formula1>
-            <xm:f>'Windows Version'!$A$2:$A$7</xm:f>
+            <xm:f>'Windows Version'!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
@@ -619,15 +634,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8231F713-4B21-4658-BB41-A2581BE93602}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -652,17 +667,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
